--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2612.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2612.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7890977973973231</v>
+        <v>1.293731927871704</v>
       </c>
       <c r="B1">
-        <v>1.572116325469392</v>
+        <v>2.070857286453247</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.679467678070068</v>
       </c>
       <c r="D1">
-        <v>1.799444211873143</v>
+        <v>3.445167779922485</v>
       </c>
       <c r="E1">
-        <v>0.9201573274011785</v>
+        <v>1.372546434402466</v>
       </c>
     </row>
   </sheetData>
